--- a/Repository/BusinessObjects/DeliverySlot/requirement/DeliverySlot_OSMS_TO_EDIS_Canonical_Mapping_v1.1.xlsx
+++ b/Repository/BusinessObjects/DeliverySlot/requirement/DeliverySlot_OSMS_TO_EDIS_Canonical_Mapping_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" tabRatio="821" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12504" tabRatio="821" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="370">
   <si>
     <t>DeliverySlot</t>
   </si>
@@ -998,6 +998,21 @@
     <t>Nullable</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>GetDeliverySlot</t>
+  </si>
+  <si>
     <t>Depending upon Environment where code is deployed map it as DEV, QA, PROD</t>
   </si>
   <si>
@@ -1079,7 +1094,7 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t>deliveryType</t>
+    <t>deliveryType[*]</t>
   </si>
   <si>
     <t>b2bCharge/userType</t>
@@ -1106,25 +1121,25 @@
     <t>reservedByCurrentUser</t>
   </si>
   <si>
-    <t>bookings/userGuid</t>
-  </si>
-  <si>
-    <t>bookings/cartId</t>
-  </si>
-  <si>
-    <t>bookings/expiryTime</t>
-  </si>
-  <si>
-    <t>bookings/orderId</t>
-  </si>
-  <si>
-    <t>bookings/versionNumber</t>
-  </si>
-  <si>
-    <t>bookings/deliveryType</t>
-  </si>
-  <si>
-    <t>bookings/bookingCategory</t>
+    <t>bookings[*]/userGuid</t>
+  </si>
+  <si>
+    <t>bookings[*]/cartId</t>
+  </si>
+  <si>
+    <t>bookings[*]/expiryTime</t>
+  </si>
+  <si>
+    <t>bookings[*]/orderId</t>
+  </si>
+  <si>
+    <t>bookings[*]/versionNumber</t>
+  </si>
+  <si>
+    <t>bookings[*]/deliveryType</t>
+  </si>
+  <si>
+    <t>bookings[*]/bookingCategory</t>
   </si>
 </sst>
 </file>
@@ -1132,15 +1147,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm;@"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm;@"/>
     <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,13 +1349,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1353,9 +1361,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,25 +1431,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1407,62 +1475,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,19 +1490,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,7 +1552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,7 +1570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,7 +1600,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,61 +1672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,49 +1702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,19 +1720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1838,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1860,17 +1876,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,26 +1897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1924,152 +1911,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -2368,7 +2364,7 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="26" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11634,7 +11630,7 @@
   <dimension ref="A1:Q678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -11644,8 +11640,8 @@
     <col min="3" max="3" width="21.287037037037" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.8518518518519" style="4" customWidth="1"/>
     <col min="5" max="5" width="5.57407407407407" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.42592592592593" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.8611111111111" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.9166666666667" style="4" customWidth="1"/>
     <col min="8" max="8" width="8" style="4" customWidth="1"/>
     <col min="9" max="9" width="34.8518518518519" style="5" customWidth="1"/>
     <col min="10" max="10" width="14.4259259259259" style="4" hidden="1" customWidth="1"/>
@@ -11746,40 +11742,57 @@
       <c r="Q3" s="39"/>
     </row>
     <row r="4" customFormat="1" ht="28.5" customHeight="1" spans="1:17">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>323</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>319</v>
+      </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="30"/>
+      <c r="I4" s="30" t="s">
+        <v>324</v>
+      </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="32"/>
       <c r="Q4" s="39"/>
     </row>
-    <row r="5" customFormat="1" ht="28.5" customHeight="1" spans="1:17">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="32"/>
-      <c r="Q5" s="39"/>
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:17">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A6" s="1">
@@ -11916,14 +11929,14 @@
         <v>88</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K10" s="35"/>
       <c r="O10" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="40"/>
     </row>
@@ -11947,14 +11960,14 @@
         <v>86</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K11" s="35"/>
       <c r="O11" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="40"/>
     </row>
@@ -11978,11 +11991,11 @@
         <v>86</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K12" s="35"/>
       <c r="O12" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="40"/>
     </row>
@@ -12035,11 +12048,11 @@
         <v>86</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K14" s="35"/>
       <c r="O14" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="40"/>
     </row>
@@ -12069,11 +12082,11 @@
         <v>88</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K15" s="35"/>
       <c r="O15" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q15" s="40"/>
     </row>
@@ -12103,11 +12116,11 @@
         <v>88</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K16" s="35"/>
       <c r="O16" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="40"/>
     </row>
@@ -12131,11 +12144,11 @@
         <v>115</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K17" s="35"/>
       <c r="O17" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="40"/>
     </row>
@@ -12165,11 +12178,11 @@
         <v>88</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K18" s="35"/>
       <c r="O18" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="40"/>
     </row>
@@ -12326,11 +12339,11 @@
         <v>86</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K24" s="35"/>
       <c r="O24" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="40"/>
     </row>
@@ -12482,7 +12495,7 @@
         <v>88</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K29" s="35"/>
       <c r="Q29" s="40"/>
@@ -12513,11 +12526,11 @@
         <v>88</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K30" s="35"/>
       <c r="O30" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q30" s="40"/>
     </row>
@@ -12626,11 +12639,11 @@
         <v>88</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K34" s="35"/>
       <c r="O34" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q34" s="40"/>
     </row>
@@ -12655,7 +12668,7 @@
       </c>
       <c r="G35" s="16"/>
       <c r="I35" s="34" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K35" s="35"/>
       <c r="Q35" s="40"/>
@@ -12712,11 +12725,11 @@
       </c>
       <c r="G37" s="16"/>
       <c r="I37" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K37" s="35"/>
       <c r="O37" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="40"/>
     </row>
@@ -12746,11 +12759,11 @@
         <v>88</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K38" s="35"/>
       <c r="O38" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="41"/>
     </row>
@@ -12780,11 +12793,11 @@
         <v>88</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K39" s="35"/>
       <c r="O39" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q39" s="41"/>
     </row>
@@ -12838,11 +12851,11 @@
       </c>
       <c r="G41" s="16"/>
       <c r="I41" s="34" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K41" s="35"/>
       <c r="O41" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q41" s="41"/>
     </row>
@@ -12872,11 +12885,11 @@
         <v>88</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K42" s="35"/>
       <c r="O42" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q42" s="41"/>
     </row>
@@ -12962,7 +12975,7 @@
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
       <c r="O45" s="144" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q45" s="40"/>
     </row>
@@ -13083,13 +13096,13 @@
       </c>
       <c r="G50" s="16"/>
       <c r="I50" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O50" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q50" s="40"/>
     </row>
@@ -13114,13 +13127,13 @@
       </c>
       <c r="G51" s="16"/>
       <c r="I51" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O51" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q51" s="40"/>
     </row>
@@ -13169,13 +13182,13 @@
       </c>
       <c r="G53" s="16"/>
       <c r="I53" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O53" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q53" s="40"/>
     </row>
@@ -13200,13 +13213,13 @@
       </c>
       <c r="G54" s="16"/>
       <c r="I54" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="O54" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q54" s="40"/>
     </row>
@@ -13231,13 +13244,13 @@
       </c>
       <c r="G55" s="16"/>
       <c r="I55" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="O55" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q55" s="40"/>
     </row>
@@ -13262,13 +13275,13 @@
       </c>
       <c r="G56" s="16"/>
       <c r="I56" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O56" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q56" s="40"/>
     </row>
@@ -13509,13 +13522,13 @@
       </c>
       <c r="G66" s="16"/>
       <c r="I66" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="O66" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q66" s="40"/>
     </row>
@@ -13612,13 +13625,13 @@
       </c>
       <c r="G70" s="16"/>
       <c r="I70" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O70" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q70" s="40"/>
     </row>
@@ -13704,17 +13717,17 @@
       <c r="G73" s="42"/>
       <c r="H73" s="3"/>
       <c r="I73" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="34" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q73" s="40"/>
     </row>
@@ -13770,17 +13783,17 @@
       <c r="G75" s="42"/>
       <c r="H75" s="3"/>
       <c r="I75" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="34" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q75" s="40"/>
     </row>
@@ -13896,17 +13909,17 @@
       <c r="G79" s="42"/>
       <c r="H79" s="3"/>
       <c r="I79" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="34" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q79" s="40"/>
     </row>
@@ -14046,17 +14059,17 @@
       <c r="G84" s="42"/>
       <c r="H84" s="3"/>
       <c r="I84" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J84" s="48"/>
       <c r="K84" s="34" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L84" s="48"/>
       <c r="M84" s="49"/>
       <c r="N84" s="3"/>
       <c r="O84" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q84" s="41"/>
     </row>
@@ -14142,17 +14155,17 @@
       <c r="G87" s="42"/>
       <c r="H87" s="3"/>
       <c r="I87" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="34" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q87" s="40"/>
     </row>
@@ -14178,17 +14191,17 @@
       <c r="G88" s="42"/>
       <c r="H88" s="3"/>
       <c r="I88" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="34" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q88" s="40"/>
     </row>
@@ -14214,17 +14227,17 @@
       <c r="G89" s="42"/>
       <c r="H89" s="3"/>
       <c r="I89" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="34" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q89" s="40"/>
     </row>
@@ -14250,17 +14263,17 @@
       <c r="G90" s="42"/>
       <c r="H90" s="3"/>
       <c r="I90" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="34" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q90" s="40"/>
     </row>
@@ -14286,17 +14299,17 @@
       <c r="G91" s="42"/>
       <c r="H91" s="3"/>
       <c r="I91" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="34" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q91" s="40"/>
     </row>
@@ -14322,17 +14335,17 @@
       <c r="G92" s="42"/>
       <c r="H92" s="3"/>
       <c r="I92" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="34" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q92" s="40"/>
     </row>
@@ -14357,13 +14370,13 @@
       </c>
       <c r="G93" s="42"/>
       <c r="I93" s="47" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K93" s="47" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O93" s="145" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q93" s="41"/>
     </row>
@@ -14656,17 +14669,17 @@
       <c r="G103" s="42"/>
       <c r="H103" s="3"/>
       <c r="I103" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="34" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q103" s="40"/>
     </row>
@@ -14692,17 +14705,17 @@
       <c r="G104" s="42"/>
       <c r="H104" s="3"/>
       <c r="I104" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="34" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L104" s="51"/>
       <c r="M104" s="51"/>
       <c r="N104" s="3"/>
       <c r="O104" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q104" s="41"/>
     </row>
@@ -14728,17 +14741,17 @@
       <c r="G105" s="42"/>
       <c r="H105" s="3"/>
       <c r="I105" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="34" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L105" s="51"/>
       <c r="M105" s="51"/>
       <c r="N105" s="3"/>
       <c r="O105" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q105" s="40"/>
     </row>
@@ -14764,17 +14777,17 @@
       <c r="G106" s="42"/>
       <c r="H106" s="3"/>
       <c r="I106" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="34" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L106" s="51"/>
       <c r="M106" s="51"/>
       <c r="N106" s="3"/>
       <c r="O106" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q106" s="40"/>
     </row>
@@ -14800,17 +14813,17 @@
       <c r="G107" s="42"/>
       <c r="H107" s="3"/>
       <c r="I107" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="34" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L107" s="51"/>
       <c r="M107" s="51"/>
       <c r="N107" s="3"/>
       <c r="O107" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q107" s="40"/>
     </row>
@@ -14866,17 +14879,17 @@
       <c r="G109" s="42"/>
       <c r="H109" s="3"/>
       <c r="I109" s="34" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="34" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L109" s="51"/>
       <c r="M109" s="51"/>
       <c r="N109" s="3"/>
       <c r="O109" s="143" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q109" s="40"/>
     </row>
@@ -14992,17 +15005,17 @@
       <c r="G113" s="42"/>
       <c r="H113" s="3"/>
       <c r="I113" s="47" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="51" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L113" s="51"/>
       <c r="M113" s="51"/>
       <c r="N113" s="3"/>
       <c r="O113" s="145" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q113" s="40"/>
     </row>
